--- a/data/trunk_cal_data_rate.xlsx
+++ b/data/trunk_cal_data_rate.xlsx
@@ -882,7 +882,7 @@
     <t>NOTE:  Because of rounding and data exclusion of nonclassifiable responses, data may not sum to the totals.  Dashes indicate data that do not meet publication guidelines. The scientifically selected probability sample used was one of many possible samples, each of which could have produced different estimates.  A measure of sampling variability for each estimate is available upon request -- please contact iifstaff@bls.gov or call (202) 691-6170. For additional information about methodology and coding structures, see the BLS Handbook of Methods chapter 9: https://www.bls.gov/opub/hom/homch9.htm .</t>
   </si>
   <si>
-    <t>SOURCE:  Bureau of Labor Statistics, U.S. Department of Labor,  Feb 14, 2019</t>
+    <t>SOURCE:  Bureau of Labor Statistics, U.S. Department of Labor,  Mar 1, 2019</t>
   </si>
 </sst>
 </file>
